--- a/final_data_pipeline/output/325311_elec_options.xlsx
+++ b/final_data_pipeline/output/325311_elec_options.xlsx
@@ -1044,7 +1044,7 @@
         <v>154</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE2">
         <v>8000</v>
@@ -1139,7 +1139,7 @@
         <v>155</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE3">
         <v>8000</v>
@@ -1234,7 +1234,7 @@
         <v>154</v>
       </c>
       <c r="AD4">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE4">
         <v>8000</v>
@@ -1329,7 +1329,7 @@
         <v>154</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE5">
         <v>8000</v>
@@ -1424,7 +1424,7 @@
         <v>155</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE6">
         <v>8000</v>
@@ -1519,7 +1519,7 @@
         <v>155</v>
       </c>
       <c r="AD7">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE7">
         <v>8000</v>
@@ -1614,7 +1614,7 @@
         <v>154</v>
       </c>
       <c r="AD8">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE8">
         <v>8000</v>
@@ -1709,7 +1709,7 @@
         <v>155</v>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE9">
         <v>8000</v>
@@ -1804,7 +1804,7 @@
         <v>154</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE10">
         <v>8000</v>
@@ -1899,7 +1899,7 @@
         <v>154</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE11">
         <v>8000</v>
@@ -1994,7 +1994,7 @@
         <v>155</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -2089,7 +2089,7 @@
         <v>155</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -3894,7 +3894,7 @@
         <v>154</v>
       </c>
       <c r="AD32">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE32">
         <v>8000</v>
@@ -3989,7 +3989,7 @@
         <v>154</v>
       </c>
       <c r="AD33">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE33">
         <v>8000</v>
@@ -4084,7 +4084,7 @@
         <v>154</v>
       </c>
       <c r="AD34">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE34">
         <v>8000</v>
@@ -4179,7 +4179,7 @@
         <v>155</v>
       </c>
       <c r="AD35">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE35">
         <v>8000</v>
@@ -4274,7 +4274,7 @@
         <v>155</v>
       </c>
       <c r="AD36">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE36">
         <v>8000</v>
@@ -4369,7 +4369,7 @@
         <v>155</v>
       </c>
       <c r="AD37">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE37">
         <v>8000</v>
@@ -14154,7 +14154,7 @@
         <v>155</v>
       </c>
       <c r="AD140">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE140">
         <v>8000</v>
@@ -14249,7 +14249,7 @@
         <v>155</v>
       </c>
       <c r="AD141">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE141">
         <v>8000</v>
@@ -14344,7 +14344,7 @@
         <v>154</v>
       </c>
       <c r="AD142">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE142">
         <v>8000</v>
@@ -14439,7 +14439,7 @@
         <v>155</v>
       </c>
       <c r="AD143">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE143">
         <v>8000</v>
@@ -14534,7 +14534,7 @@
         <v>154</v>
       </c>
       <c r="AD144">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE144">
         <v>8000</v>
@@ -14629,7 +14629,7 @@
         <v>155</v>
       </c>
       <c r="AD145">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE145">
         <v>8000</v>
@@ -14724,7 +14724,7 @@
         <v>154</v>
       </c>
       <c r="AD146">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE146">
         <v>8000</v>
@@ -14819,7 +14819,7 @@
         <v>155</v>
       </c>
       <c r="AD147">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE147">
         <v>8000</v>
@@ -14914,7 +14914,7 @@
         <v>154</v>
       </c>
       <c r="AD148">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE148">
         <v>8000</v>
@@ -15009,7 +15009,7 @@
         <v>154</v>
       </c>
       <c r="AD149">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE149">
         <v>8000</v>
@@ -15104,7 +15104,7 @@
         <v>154</v>
       </c>
       <c r="AD150">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE150">
         <v>8000</v>
@@ -15199,7 +15199,7 @@
         <v>155</v>
       </c>
       <c r="AD151">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE151">
         <v>8000</v>
@@ -18144,7 +18144,7 @@
         <v>154</v>
       </c>
       <c r="AD182">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE182">
         <v>8000</v>
@@ -18242,7 +18242,7 @@
         <v>154</v>
       </c>
       <c r="AD183">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE183">
         <v>8000</v>
@@ -18337,7 +18337,7 @@
         <v>154</v>
       </c>
       <c r="AD184">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE184">
         <v>8000</v>
@@ -18432,7 +18432,7 @@
         <v>155</v>
       </c>
       <c r="AD185">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE185">
         <v>8000</v>
@@ -18527,7 +18527,7 @@
         <v>154</v>
       </c>
       <c r="AD186">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE186">
         <v>8000</v>
@@ -18622,7 +18622,7 @@
         <v>155</v>
       </c>
       <c r="AD187">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE187">
         <v>8000</v>
@@ -18717,7 +18717,7 @@
         <v>155</v>
       </c>
       <c r="AD188">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE188">
         <v>8000</v>
@@ -18812,7 +18812,7 @@
         <v>155</v>
       </c>
       <c r="AD189">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE189">
         <v>8000</v>
@@ -18907,7 +18907,7 @@
         <v>154</v>
       </c>
       <c r="AD190">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE190">
         <v>8000</v>
@@ -19002,7 +19002,7 @@
         <v>154</v>
       </c>
       <c r="AD191">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE191">
         <v>8000</v>
@@ -19097,7 +19097,7 @@
         <v>154</v>
       </c>
       <c r="AD192">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE192">
         <v>8000</v>
@@ -19192,7 +19192,7 @@
         <v>155</v>
       </c>
       <c r="AD193">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE193">
         <v>8000</v>
@@ -19287,7 +19287,7 @@
         <v>155</v>
       </c>
       <c r="AD194">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE194">
         <v>8000</v>
@@ -20522,7 +20522,7 @@
         <v>154</v>
       </c>
       <c r="AD207">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE207">
         <v>8000</v>
@@ -20617,7 +20617,7 @@
         <v>154</v>
       </c>
       <c r="AD208">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE208">
         <v>8000</v>
@@ -20715,7 +20715,7 @@
         <v>154</v>
       </c>
       <c r="AD209">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE209">
         <v>8000</v>
@@ -20810,7 +20810,7 @@
         <v>154</v>
       </c>
       <c r="AD210">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE210">
         <v>8000</v>
@@ -20905,7 +20905,7 @@
         <v>155</v>
       </c>
       <c r="AD211">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE211">
         <v>8000</v>
@@ -21000,7 +21000,7 @@
         <v>155</v>
       </c>
       <c r="AD212">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE212">
         <v>8000</v>
@@ -21095,7 +21095,7 @@
         <v>155</v>
       </c>
       <c r="AD213">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE213">
         <v>8000</v>
@@ -21760,7 +21760,7 @@
         <v>155</v>
       </c>
       <c r="AD220">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE220">
         <v>8000</v>
@@ -21855,7 +21855,7 @@
         <v>155</v>
       </c>
       <c r="AD221">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE221">
         <v>8000</v>
@@ -21950,7 +21950,7 @@
         <v>154</v>
       </c>
       <c r="AD222">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE222">
         <v>8000</v>
@@ -22045,7 +22045,7 @@
         <v>154</v>
       </c>
       <c r="AD223">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE223">
         <v>8000</v>
@@ -22140,7 +22140,7 @@
         <v>155</v>
       </c>
       <c r="AD224">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE224">
         <v>8000</v>
@@ -22235,7 +22235,7 @@
         <v>154</v>
       </c>
       <c r="AD225">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE225">
         <v>8000</v>
@@ -23470,7 +23470,7 @@
         <v>155</v>
       </c>
       <c r="AD238">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE238">
         <v>8000</v>
@@ -23565,7 +23565,7 @@
         <v>155</v>
       </c>
       <c r="AD239">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE239">
         <v>8000</v>
@@ -23660,7 +23660,7 @@
         <v>155</v>
       </c>
       <c r="AD240">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE240">
         <v>8000</v>
@@ -23755,7 +23755,7 @@
         <v>155</v>
       </c>
       <c r="AD241">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE241">
         <v>8000</v>
@@ -23850,7 +23850,7 @@
         <v>155</v>
       </c>
       <c r="AD242">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE242">
         <v>8000</v>
@@ -23945,7 +23945,7 @@
         <v>155</v>
       </c>
       <c r="AD243">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE243">
         <v>8000</v>
@@ -24040,7 +24040,7 @@
         <v>155</v>
       </c>
       <c r="AD244">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE244">
         <v>8000</v>
@@ -24135,7 +24135,7 @@
         <v>155</v>
       </c>
       <c r="AD245">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE245">
         <v>8000</v>
@@ -24230,7 +24230,7 @@
         <v>155</v>
       </c>
       <c r="AD246">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE246">
         <v>8000</v>
@@ -24325,7 +24325,7 @@
         <v>154</v>
       </c>
       <c r="AD247">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE247">
         <v>8000</v>
@@ -24420,7 +24420,7 @@
         <v>154</v>
       </c>
       <c r="AD248">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE248">
         <v>8000</v>
@@ -24515,7 +24515,7 @@
         <v>154</v>
       </c>
       <c r="AD249">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE249">
         <v>8000</v>
@@ -24610,7 +24610,7 @@
         <v>154</v>
       </c>
       <c r="AD250">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE250">
         <v>8000</v>
@@ -24705,7 +24705,7 @@
         <v>154</v>
       </c>
       <c r="AD251">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE251">
         <v>8000</v>
@@ -24800,7 +24800,7 @@
         <v>155</v>
       </c>
       <c r="AD252">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE252">
         <v>8000</v>
@@ -24895,7 +24895,7 @@
         <v>155</v>
       </c>
       <c r="AD253">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE253">
         <v>8000</v>
@@ -24990,7 +24990,7 @@
         <v>154</v>
       </c>
       <c r="AD254">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE254">
         <v>8000</v>
@@ -25085,7 +25085,7 @@
         <v>155</v>
       </c>
       <c r="AD255">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE255">
         <v>8000</v>
@@ -25180,7 +25180,7 @@
         <v>154</v>
       </c>
       <c r="AD256">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE256">
         <v>8000</v>
@@ -25275,7 +25275,7 @@
         <v>154</v>
       </c>
       <c r="AD257">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE257">
         <v>8000</v>
@@ -25370,7 +25370,7 @@
         <v>155</v>
       </c>
       <c r="AD258">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE258">
         <v>8000</v>
@@ -25465,7 +25465,7 @@
         <v>154</v>
       </c>
       <c r="AD259">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE259">
         <v>8000</v>
@@ -25560,7 +25560,7 @@
         <v>154</v>
       </c>
       <c r="AD260">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE260">
         <v>8000</v>
@@ -25655,7 +25655,7 @@
         <v>155</v>
       </c>
       <c r="AD261">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE261">
         <v>8000</v>
@@ -25750,7 +25750,7 @@
         <v>154</v>
       </c>
       <c r="AD262">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE262">
         <v>8000</v>
@@ -25845,7 +25845,7 @@
         <v>154</v>
       </c>
       <c r="AD263">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE263">
         <v>8000</v>
@@ -25940,7 +25940,7 @@
         <v>154</v>
       </c>
       <c r="AD264">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE264">
         <v>8000</v>
@@ -26035,7 +26035,7 @@
         <v>154</v>
       </c>
       <c r="AD265">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE265">
         <v>8000</v>
@@ -26130,7 +26130,7 @@
         <v>154</v>
       </c>
       <c r="AD266">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE266">
         <v>8000</v>
@@ -26225,7 +26225,7 @@
         <v>154</v>
       </c>
       <c r="AD267">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE267">
         <v>8000</v>
@@ -26320,7 +26320,7 @@
         <v>154</v>
       </c>
       <c r="AD268">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE268">
         <v>8000</v>
@@ -26415,7 +26415,7 @@
         <v>155</v>
       </c>
       <c r="AD269">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE269">
         <v>8000</v>
@@ -26510,7 +26510,7 @@
         <v>155</v>
       </c>
       <c r="AD270">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE270">
         <v>8000</v>
@@ -26605,7 +26605,7 @@
         <v>155</v>
       </c>
       <c r="AD271">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE271">
         <v>8000</v>
@@ -26700,7 +26700,7 @@
         <v>154</v>
       </c>
       <c r="AD272">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE272">
         <v>8000</v>
@@ -26795,7 +26795,7 @@
         <v>155</v>
       </c>
       <c r="AD273">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE273">
         <v>8000</v>
@@ -27460,7 +27460,7 @@
         <v>154</v>
       </c>
       <c r="AD280">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE280">
         <v>8000</v>
@@ -27555,7 +27555,7 @@
         <v>155</v>
       </c>
       <c r="AD281">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE281">
         <v>8000</v>
@@ -27650,7 +27650,7 @@
         <v>154</v>
       </c>
       <c r="AD282">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE282">
         <v>8000</v>
@@ -27745,7 +27745,7 @@
         <v>154</v>
       </c>
       <c r="AD283">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE283">
         <v>8000</v>
@@ -27840,7 +27840,7 @@
         <v>155</v>
       </c>
       <c r="AD284">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE284">
         <v>8000</v>
@@ -27935,7 +27935,7 @@
         <v>155</v>
       </c>
       <c r="AD285">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE285">
         <v>8000</v>
@@ -29170,7 +29170,7 @@
         <v>154</v>
       </c>
       <c r="AD298">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE298">
         <v>8000</v>
@@ -29265,7 +29265,7 @@
         <v>154</v>
       </c>
       <c r="AD299">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE299">
         <v>8000</v>
@@ -29360,7 +29360,7 @@
         <v>155</v>
       </c>
       <c r="AD300">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE300">
         <v>8000</v>
@@ -29455,7 +29455,7 @@
         <v>155</v>
       </c>
       <c r="AD301">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE301">
         <v>8000</v>
@@ -29550,7 +29550,7 @@
         <v>154</v>
       </c>
       <c r="AD302">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE302">
         <v>8000</v>
@@ -29645,7 +29645,7 @@
         <v>155</v>
       </c>
       <c r="AD303">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE303">
         <v>8000</v>
@@ -32688,7 +32688,7 @@
         <v>155</v>
       </c>
       <c r="AD335">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE335">
         <v>8000</v>
@@ -32783,7 +32783,7 @@
         <v>155</v>
       </c>
       <c r="AD336">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE336">
         <v>8000</v>
@@ -32878,7 +32878,7 @@
         <v>154</v>
       </c>
       <c r="AD337">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE337">
         <v>8000</v>
@@ -32973,7 +32973,7 @@
         <v>154</v>
       </c>
       <c r="AD338">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE338">
         <v>8000</v>
@@ -33068,7 +33068,7 @@
         <v>154</v>
       </c>
       <c r="AD339">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE339">
         <v>8000</v>
@@ -33163,7 +33163,7 @@
         <v>155</v>
       </c>
       <c r="AD340">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE340">
         <v>8000</v>
@@ -33258,7 +33258,7 @@
         <v>154</v>
       </c>
       <c r="AD341">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE341">
         <v>8000</v>
@@ -33353,7 +33353,7 @@
         <v>154</v>
       </c>
       <c r="AD342">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE342">
         <v>8000</v>
@@ -33448,7 +33448,7 @@
         <v>155</v>
       </c>
       <c r="AD343">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE343">
         <v>8000</v>
@@ -33543,7 +33543,7 @@
         <v>155</v>
       </c>
       <c r="AD344">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE344">
         <v>8000</v>
@@ -33638,7 +33638,7 @@
         <v>155</v>
       </c>
       <c r="AD345">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE345">
         <v>8000</v>
@@ -33733,7 +33733,7 @@
         <v>155</v>
       </c>
       <c r="AD346">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE346">
         <v>8000</v>
@@ -33828,7 +33828,7 @@
         <v>155</v>
       </c>
       <c r="AD347">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE347">
         <v>8000</v>
@@ -33923,7 +33923,7 @@
         <v>154</v>
       </c>
       <c r="AD348">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE348">
         <v>8000</v>
@@ -34021,7 +34021,7 @@
         <v>154</v>
       </c>
       <c r="AD349">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE349">
         <v>8000</v>
@@ -34116,7 +34116,7 @@
         <v>154</v>
       </c>
       <c r="AD350">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE350">
         <v>8000</v>
@@ -34211,7 +34211,7 @@
         <v>154</v>
       </c>
       <c r="AD351">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE351">
         <v>8000</v>
@@ -34306,7 +34306,7 @@
         <v>154</v>
       </c>
       <c r="AD352">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE352">
         <v>8000</v>
@@ -34401,7 +34401,7 @@
         <v>155</v>
       </c>
       <c r="AD353">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE353">
         <v>8000</v>
